--- a/Output_testing/R1_201907/Country/HKD/MN/BOSNIA,HERZEGOVINA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BOSNIA,HERZEGOVINA_201907_HKD_MN.xlsx
@@ -544,17 +544,25 @@
       <c r="C7" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.029226</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.024051</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.262321</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.407837</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-17.70683637856703</v>
@@ -562,8 +570,10 @@
       <c r="I7" s="9" t="n">
         <v>990.6864579435367</v>
       </c>
-      <c r="J7" s="9" t="n">
-        <v>1912.9164404521</v>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
     <row r="8">

--- a/Output_testing/R1_201907/Country/HKD/MN/BOSNIA,HERZEGOVINA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BOSNIA,HERZEGOVINA_201907_HKD_MN.xlsx
@@ -820,136 +820,479 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>113.212754</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>72.59633970348955</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>96.725988</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>73.26506333820275</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>82.628495</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>72.49797775390225</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>56.756973</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>80.62582987346596</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-9.506611097106067</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>5.526227</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.543627713275095</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>6.268098</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4.747768479553416</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>4.777063</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>4.191379827297951</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3.695014</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>5.248933380292761</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>39.50898309852242</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>11.694719</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>7.499100262686424</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>12.318789</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.330862108484798</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>12.522726</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.98739981850345</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.370316</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.367140361103372</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-73.85322517733313</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.674407</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.073693688026535</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2.178217</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.649889649815208</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.783906</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.565193429979001</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.029916</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.883586869113449</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>29.16821770390492</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.2275933827939574</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.025556</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.7768070076148911</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0.6060449999999999</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.5317419484387764</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.482794</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.106375489429221</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>266.9382997730754</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.3024269117731236</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0.672726</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.5902476449858084</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.7035404994019435</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>73.85265064554855</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.1715472426293599</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.05015982906664611</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.1716161834332093</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.6702116744046827</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>246.0002346763666</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>0.576647</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.3697680696028129</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.293585959750142</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.211055169947945</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.5422433055080308</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.4805831325546976</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3010427270141043</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.662342</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.5016906995207109</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.658842</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.5780658677050389</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4530430281210647</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-20.91816872106546</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>22.105487</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.17488213000341</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>11.987756</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>9.080121286772693</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>9.877462</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>8.666453628872398</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.054502</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.918512386604824</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-65.23261717163513</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -981,136 +1324,613 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>86.3628912668067</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>93.59499015538071</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>4.296324266802669</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>7.904437692750485</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.108685577816628</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-57.55392132668673</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.732671040442816</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, ROOTS AND TUBERS, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1142,136 +1962,477 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>113.212754</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>72.60994740803642</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>96.725988</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>73.27841277510943</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>82.628495</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>72.66522374806435</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>56.756973</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>81.0956582018059</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-9.506611097106067</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>5.526227</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.544291942892502</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>6.268098</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>4.748633558117161</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4.777063</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.201048945083649</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>3.695014</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>5.279520322461306</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>39.50898309852242</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>11.694719</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.50050591951649</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>12.318789</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.33256226063545</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>12.522726</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>11.01274671317326</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2.370316</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.386761590796461</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-73.85322517733313</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1.674407</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.073894944819097</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2.178217</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.650190271923204</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.783906</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.568804183538796</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.029916</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.900390302956732</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>29.16821770390492</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.2276360436708354</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.025556</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.7769485476022238</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>0.6060449999999999</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.532968626941537</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.482794</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.118649904174569</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>266.9382997730754</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.3024820161952539</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>0.672726</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.5916092906102227</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.7076402185275913</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>73.85265064554855</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.1715793980273189</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.05016896855882513</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.1587873545890767</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.6741171775308353</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>246.0002346763666</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.4833836193236513</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2823548157538062</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.6382910000000001</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.4835613710002877</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>0.638107</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.5611646191813865</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.4433951550675688</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-18.98020991070962</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.06395882212457284</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1164654627538477</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.54193</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.476584557249754</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.3981643398858576</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-21.69509909433983</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>22.58241</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>14.48341767612786</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>12.221622</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>9.258949742620965</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>9.349531000000001</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.222172775317569</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1.758314</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.512319167469522</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-68.40115956739243</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1303,136 +2464,571 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>0.518276</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>52.11323262803425</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>5.00272</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>75.35231400131282</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>0.535812</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>22.43210859610298</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>0.726987</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>54.8604015521168</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>221.9905305630727</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1.2789</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>19.26313572941899</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1.4259</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>59.69620622006084</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>17.11494025618077</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-84.09425625920471</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>15.22022279607413</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>11.23669781263819</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.066325530231197</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.6346637634645388</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.8173008891423155</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.567737582990104</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>39.39210950080516</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>8.130054751874953</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>7.613935227167112</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.310394315651802</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.556609278417907</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.085854029141875</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>45.82044184173455</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.10742319824386</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
